--- a/online_translators/xlsx_accuracy/google_sharp_compatibility.xlsx
+++ b/online_translators/xlsx_accuracy/google_sharp_compatibility.xlsx
@@ -412,13 +412,13 @@
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="n">
-        <v>0.6125</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -426,14 +426,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4558823529411765</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.562962962962963</v>
+        <v>0.5657894736842105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -441,14 +441,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8345588235294118</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.45</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="n">
-        <v>0.6074074074074074</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7095588235294118</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7546296296296297</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5481481481481482</v>
+        <v>0.4342105263157895</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -473,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7573529411764706</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.625</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7453703703703703</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="E6" t="s"/>
     </row>
